--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Inhbb-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Inhbb-Acvr2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Inhbb</t>
   </si>
   <si>
     <t>Acvr2b</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.525153666666667</v>
+        <v>1.165518666666667</v>
       </c>
       <c r="H2">
-        <v>7.575461000000001</v>
+        <v>3.496556</v>
       </c>
       <c r="I2">
-        <v>0.7378191762484796</v>
+        <v>0.1888647065994748</v>
       </c>
       <c r="J2">
-        <v>0.7378191762484798</v>
+        <v>0.1888647065994748</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.285895333333333</v>
+        <v>1.716657</v>
       </c>
       <c r="N2">
-        <v>3.857686</v>
+        <v>5.149971</v>
       </c>
       <c r="O2">
-        <v>0.3864259878905995</v>
+        <v>0.3840886036988016</v>
       </c>
       <c r="P2">
-        <v>0.3864259878905995</v>
+        <v>0.3840886036988015</v>
       </c>
       <c r="Q2">
-        <v>3.247083315916222</v>
+        <v>2.000795777764</v>
       </c>
       <c r="R2">
-        <v>29.223749843246</v>
+        <v>18.007161999876</v>
       </c>
       <c r="S2">
-        <v>0.2851125040664471</v>
+        <v>0.07254078144577611</v>
       </c>
       <c r="T2">
-        <v>0.2851125040664471</v>
+        <v>0.07254078144577611</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.525153666666667</v>
+        <v>1.165518666666667</v>
       </c>
       <c r="H3">
-        <v>7.575461000000001</v>
+        <v>3.496556</v>
       </c>
       <c r="I3">
-        <v>0.7378191762484796</v>
+        <v>0.1888647065994748</v>
       </c>
       <c r="J3">
-        <v>0.7378191762484798</v>
+        <v>0.1888647065994748</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.055252</v>
       </c>
       <c r="O3">
-        <v>0.1057050253891921</v>
+        <v>0.07870146593648156</v>
       </c>
       <c r="P3">
-        <v>0.1057050253891921</v>
+        <v>0.07870146593648154</v>
       </c>
       <c r="Q3">
-        <v>0.8882244856857779</v>
+        <v>0.4099719680124445</v>
       </c>
       <c r="R3">
-        <v>7.994020371172001</v>
+        <v>3.689747712112</v>
       </c>
       <c r="S3">
-        <v>0.07799119475797833</v>
+        <v>0.01486392927304215</v>
       </c>
       <c r="T3">
-        <v>0.07799119475797835</v>
+        <v>0.01486392927304215</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.525153666666667</v>
+        <v>1.165518666666667</v>
       </c>
       <c r="H4">
-        <v>7.575461000000001</v>
+        <v>3.496556</v>
       </c>
       <c r="I4">
-        <v>0.7378191762484796</v>
+        <v>0.1888647065994748</v>
       </c>
       <c r="J4">
-        <v>0.7378191762484798</v>
+        <v>0.1888647065994748</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.093401</v>
+        <v>1.677572333333333</v>
       </c>
       <c r="N4">
-        <v>3.280203</v>
+        <v>5.032717</v>
       </c>
       <c r="O4">
-        <v>0.328579279069553</v>
+        <v>0.3753437146230962</v>
       </c>
       <c r="P4">
-        <v>0.3285792790695531</v>
+        <v>0.3753437146230962</v>
       </c>
       <c r="Q4">
-        <v>2.761005544287</v>
+        <v>1.955241869183555</v>
       </c>
       <c r="R4">
-        <v>24.849049898583</v>
+        <v>17.597176822652</v>
       </c>
       <c r="S4">
-        <v>0.2424320930154169</v>
+        <v>0.07088918053624806</v>
       </c>
       <c r="T4">
-        <v>0.242432093015417</v>
+        <v>0.07088918053624806</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,14 +708,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.525153666666667</v>
+        <v>1.165518666666667</v>
       </c>
       <c r="H5">
-        <v>7.575461000000001</v>
+        <v>3.496556</v>
       </c>
       <c r="I5">
-        <v>0.7378191762484796</v>
+        <v>0.1888647065994748</v>
       </c>
       <c r="J5">
-        <v>0.7378191762484798</v>
+        <v>0.1888647065994748</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5966156666666667</v>
+        <v>0.7234496666666667</v>
       </c>
       <c r="N5">
-        <v>1.789847</v>
+        <v>2.170349</v>
       </c>
       <c r="O5">
-        <v>0.1792897076506553</v>
+        <v>0.1618662157416207</v>
       </c>
       <c r="P5">
-        <v>0.1792897076506553</v>
+        <v>0.1618662157416207</v>
       </c>
       <c r="Q5">
-        <v>1.506546238274111</v>
+        <v>0.8431940908937777</v>
       </c>
       <c r="R5">
-        <v>13.558916144467</v>
+        <v>7.588746818043999</v>
       </c>
       <c r="S5">
-        <v>0.1322833844086372</v>
+        <v>0.03057081534440849</v>
       </c>
       <c r="T5">
-        <v>0.1322833844086372</v>
+        <v>0.03057081534440849</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>1.121927</v>
       </c>
       <c r="I6">
-        <v>0.1092711394000877</v>
+        <v>0.06060032033836409</v>
       </c>
       <c r="J6">
-        <v>0.1092711394000878</v>
+        <v>0.06060032033836409</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.285895333333333</v>
+        <v>1.716657</v>
       </c>
       <c r="N6">
-        <v>3.857686</v>
+        <v>5.149971</v>
       </c>
       <c r="O6">
-        <v>0.3864259878905995</v>
+        <v>0.3840886036988016</v>
       </c>
       <c r="P6">
-        <v>0.3864259878905995</v>
+        <v>0.3840886036988015</v>
       </c>
       <c r="Q6">
-        <v>0.480893564546889</v>
+        <v>0.641987946013</v>
       </c>
       <c r="R6">
-        <v>4.328042080922001</v>
+        <v>5.777891514117001</v>
       </c>
       <c r="S6">
-        <v>0.0422252079906103</v>
+        <v>0.02327589242246235</v>
       </c>
       <c r="T6">
-        <v>0.04222520799061032</v>
+        <v>0.02327589242246235</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>1.121927</v>
       </c>
       <c r="I7">
-        <v>0.1092711394000877</v>
+        <v>0.06060032033836409</v>
       </c>
       <c r="J7">
-        <v>0.1092711394000878</v>
+        <v>0.06060032033836409</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>1.055252</v>
       </c>
       <c r="O7">
-        <v>0.1057050253891921</v>
+        <v>0.07870146593648156</v>
       </c>
       <c r="P7">
-        <v>0.1057050253891921</v>
+        <v>0.07870146593648154</v>
       </c>
       <c r="Q7">
         <v>0.1315461900671111</v>
@@ -883,10 +883,10 @@
         <v>1.183915710604</v>
       </c>
       <c r="S7">
-        <v>0.01155050856459222</v>
+        <v>0.004769334046849632</v>
       </c>
       <c r="T7">
-        <v>0.01155050856459222</v>
+        <v>0.004769334046849631</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>1.121927</v>
       </c>
       <c r="I8">
-        <v>0.1092711394000877</v>
+        <v>0.06060032033836409</v>
       </c>
       <c r="J8">
-        <v>0.1092711394000878</v>
+        <v>0.06060032033836409</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.093401</v>
+        <v>1.677572333333333</v>
       </c>
       <c r="N8">
-        <v>3.280203</v>
+        <v>5.032717</v>
       </c>
       <c r="O8">
-        <v>0.328579279069553</v>
+        <v>0.3753437146230962</v>
       </c>
       <c r="P8">
-        <v>0.3285792790695531</v>
+        <v>0.3753437146230962</v>
       </c>
       <c r="Q8">
-        <v>0.408905367909</v>
+        <v>0.627371231739889</v>
       </c>
       <c r="R8">
-        <v>3.680148311181</v>
+        <v>5.646341085659</v>
       </c>
       <c r="S8">
-        <v>0.03590423220718946</v>
+        <v>0.02274594934315114</v>
       </c>
       <c r="T8">
-        <v>0.03590423220718948</v>
+        <v>0.02274594934315114</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -977,10 +977,10 @@
         <v>1.121927</v>
       </c>
       <c r="I9">
-        <v>0.1092711394000877</v>
+        <v>0.06060032033836409</v>
       </c>
       <c r="J9">
-        <v>0.1092711394000878</v>
+        <v>0.06060032033836409</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5966156666666667</v>
+        <v>0.7234496666666667</v>
       </c>
       <c r="N9">
-        <v>1.789847</v>
+        <v>2.170349</v>
       </c>
       <c r="O9">
-        <v>0.1792897076506553</v>
+        <v>0.1618662157416207</v>
       </c>
       <c r="P9">
-        <v>0.1792897076506553</v>
+        <v>0.1618662157416207</v>
       </c>
       <c r="Q9">
-        <v>0.2231197416854445</v>
+        <v>0.2705525713914445</v>
       </c>
       <c r="R9">
-        <v>2.008077675169</v>
+        <v>2.434973142523</v>
       </c>
       <c r="S9">
-        <v>0.01959119063769573</v>
+        <v>0.009809144525900969</v>
       </c>
       <c r="T9">
-        <v>0.01959119063769573</v>
+        <v>0.009809144525900967</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5233266666666666</v>
+        <v>4.624333</v>
       </c>
       <c r="H10">
-        <v>1.56998</v>
+        <v>13.872999</v>
       </c>
       <c r="I10">
-        <v>0.1529096843514326</v>
+        <v>0.7493430352008683</v>
       </c>
       <c r="J10">
-        <v>0.1529096843514326</v>
+        <v>0.7493430352008682</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.285895333333333</v>
+        <v>1.716657</v>
       </c>
       <c r="N10">
-        <v>3.857686</v>
+        <v>5.149971</v>
       </c>
       <c r="O10">
-        <v>0.3864259878905995</v>
+        <v>0.3840886036988016</v>
       </c>
       <c r="P10">
-        <v>0.3864259878905995</v>
+        <v>0.3840886036988015</v>
       </c>
       <c r="Q10">
-        <v>0.6729433184755556</v>
+        <v>7.938393614781</v>
       </c>
       <c r="R10">
-        <v>6.05648986628</v>
+        <v>71.445542533029</v>
       </c>
       <c r="S10">
-        <v>0.05908827583354208</v>
+        <v>0.2878141200817235</v>
       </c>
       <c r="T10">
-        <v>0.05908827583354209</v>
+        <v>0.2878141200817234</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5233266666666666</v>
+        <v>4.624333</v>
       </c>
       <c r="H11">
-        <v>1.56998</v>
+        <v>13.872999</v>
       </c>
       <c r="I11">
-        <v>0.1529096843514326</v>
+        <v>0.7493430352008683</v>
       </c>
       <c r="J11">
-        <v>0.1529096843514326</v>
+        <v>0.7493430352008682</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>1.055252</v>
       </c>
       <c r="O11">
-        <v>0.1057050253891921</v>
+        <v>0.07870146593648156</v>
       </c>
       <c r="P11">
-        <v>0.1057050253891921</v>
+        <v>0.07870146593648154</v>
       </c>
       <c r="Q11">
-        <v>0.1840805038844444</v>
+        <v>1.626612215638667</v>
       </c>
       <c r="R11">
-        <v>1.65672453496</v>
+        <v>14.639509940748</v>
       </c>
       <c r="S11">
-        <v>0.01616332206662153</v>
+        <v>0.05897439535960084</v>
       </c>
       <c r="T11">
-        <v>0.01616332206662154</v>
+        <v>0.05897439535960082</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5233266666666666</v>
+        <v>4.624333</v>
       </c>
       <c r="H12">
-        <v>1.56998</v>
+        <v>13.872999</v>
       </c>
       <c r="I12">
-        <v>0.1529096843514326</v>
+        <v>0.7493430352008683</v>
       </c>
       <c r="J12">
-        <v>0.1529096843514326</v>
+        <v>0.7493430352008682</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.093401</v>
+        <v>1.677572333333333</v>
       </c>
       <c r="N12">
-        <v>3.280203</v>
+        <v>5.032717</v>
       </c>
       <c r="O12">
-        <v>0.328579279069553</v>
+        <v>0.3753437146230962</v>
       </c>
       <c r="P12">
-        <v>0.3285792790695531</v>
+        <v>0.3753437146230962</v>
       </c>
       <c r="Q12">
-        <v>0.5722059006599999</v>
+        <v>7.757653100920333</v>
       </c>
       <c r="R12">
-        <v>5.149853105939999</v>
+        <v>69.818877908283</v>
       </c>
       <c r="S12">
-        <v>0.05024295384694664</v>
+        <v>0.2812611983592395</v>
       </c>
       <c r="T12">
-        <v>0.05024295384694665</v>
+        <v>0.2812611983592394</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.624333</v>
+      </c>
+      <c r="H13">
+        <v>13.872999</v>
+      </c>
+      <c r="I13">
+        <v>0.7493430352008683</v>
+      </c>
+      <c r="J13">
+        <v>0.7493430352008682</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.7234496666666667</v>
+      </c>
+      <c r="N13">
+        <v>2.170349</v>
+      </c>
+      <c r="O13">
+        <v>0.1618662157416207</v>
+      </c>
+      <c r="P13">
+        <v>0.1618662157416207</v>
+      </c>
+      <c r="Q13">
+        <v>3.345472167405667</v>
+      </c>
+      <c r="R13">
+        <v>30.109249506651</v>
+      </c>
+      <c r="S13">
+        <v>0.1212933214003047</v>
+      </c>
+      <c r="T13">
+        <v>0.1212933214003046</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.5233266666666666</v>
-      </c>
-      <c r="H13">
-        <v>1.56998</v>
-      </c>
-      <c r="I13">
-        <v>0.1529096843514326</v>
-      </c>
-      <c r="J13">
-        <v>0.1529096843514326</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.5966156666666667</v>
-      </c>
-      <c r="N13">
-        <v>1.789847</v>
-      </c>
-      <c r="O13">
-        <v>0.1792897076506553</v>
-      </c>
-      <c r="P13">
-        <v>0.1792897076506553</v>
-      </c>
-      <c r="Q13">
-        <v>0.3122248881177777</v>
-      </c>
-      <c r="R13">
-        <v>2.81002399306</v>
-      </c>
-      <c r="S13">
-        <v>0.02741513260432233</v>
-      </c>
-      <c r="T13">
-        <v>0.02741513260432233</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.007355666666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.022067</v>
+      </c>
+      <c r="I14">
+        <v>0.001191937861292829</v>
+      </c>
+      <c r="J14">
+        <v>0.001191937861292829</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.716657</v>
+      </c>
+      <c r="N14">
+        <v>5.149971</v>
+      </c>
+      <c r="O14">
+        <v>0.3840886036988016</v>
+      </c>
+      <c r="P14">
+        <v>0.3840886036988015</v>
+      </c>
+      <c r="Q14">
+        <v>0.012627156673</v>
+      </c>
+      <c r="R14">
+        <v>0.113644410057</v>
+      </c>
+      <c r="S14">
+        <v>0.0004578097488396986</v>
+      </c>
+      <c r="T14">
+        <v>0.0004578097488396986</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.007355666666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.022067</v>
+      </c>
+      <c r="I15">
+        <v>0.001191937861292829</v>
+      </c>
+      <c r="J15">
+        <v>0.001191937861292829</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.3517506666666667</v>
+      </c>
+      <c r="N15">
+        <v>1.055252</v>
+      </c>
+      <c r="O15">
+        <v>0.07870146593648156</v>
+      </c>
+      <c r="P15">
+        <v>0.07870146593648154</v>
+      </c>
+      <c r="Q15">
+        <v>0.002587360653777778</v>
+      </c>
+      <c r="R15">
+        <v>0.023286245884</v>
+      </c>
+      <c r="S15">
+        <v>9.380725698894028E-05</v>
+      </c>
+      <c r="T15">
+        <v>9.380725698894026E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.007355666666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.022067</v>
+      </c>
+      <c r="I16">
+        <v>0.001191937861292829</v>
+      </c>
+      <c r="J16">
+        <v>0.001191937861292829</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.677572333333333</v>
+      </c>
+      <c r="N16">
+        <v>5.032717</v>
+      </c>
+      <c r="O16">
+        <v>0.3753437146230962</v>
+      </c>
+      <c r="P16">
+        <v>0.3753437146230962</v>
+      </c>
+      <c r="Q16">
+        <v>0.01233966289322222</v>
+      </c>
+      <c r="R16">
+        <v>0.111056966039</v>
+      </c>
+      <c r="S16">
+        <v>0.0004473863844575594</v>
+      </c>
+      <c r="T16">
+        <v>0.0004473863844575593</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.007355666666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.022067</v>
+      </c>
+      <c r="I17">
+        <v>0.001191937861292829</v>
+      </c>
+      <c r="J17">
+        <v>0.001191937861292829</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.7234496666666667</v>
+      </c>
+      <c r="N17">
+        <v>2.170349</v>
+      </c>
+      <c r="O17">
+        <v>0.1618662157416207</v>
+      </c>
+      <c r="P17">
+        <v>0.1618662157416207</v>
+      </c>
+      <c r="Q17">
+        <v>0.005321454598111111</v>
+      </c>
+      <c r="R17">
+        <v>0.047893091383</v>
+      </c>
+      <c r="S17">
+        <v>0.0001929344710066311</v>
+      </c>
+      <c r="T17">
+        <v>0.0001929344710066311</v>
       </c>
     </row>
   </sheetData>
